--- a/raw_data/umd/2023/RL_2023-08-07_SBay1.xlsx
+++ b/raw_data/umd/2023/RL_2023-08-07_SBay1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/08_07_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{623C169F-67D9-D940-8C02-6C1C5BE9696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C456EAB7-D98B-3146-8F4D-F5FEF510B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{ADDD9E27-9DC7-AC4D-9673-A9816198D2D2}"/>
   </bookViews>
@@ -20,43 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = Device Location</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-08-07 10:13:10</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:00:48</t>
-  </si>
-  <si>
-    <t>Readings = 49</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -117,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -624,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1002,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040A7E8B-67E0-DC46-959F-350AAE5ED940}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1028,1753 +994,2645 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45145.425810185188</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11.495189999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.9731540000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>87.11636</v>
+      </c>
+      <c r="E2" s="3">
+        <v>96.328410000000005</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.5011250000000003E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99824210000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.2620469999999998E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.49059160000000002</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20.079979999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>4.8831760000000002E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.7429962</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3.4809619999999999E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.9893883</v>
+      </c>
+      <c r="O2" s="3">
+        <v>991.91970000000003</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45145.425821759258</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11.49193</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.973811</v>
+      </c>
+      <c r="D3" s="3">
+        <v>87.110470000000007</v>
+      </c>
+      <c r="E3" s="3">
+        <v>96.348619999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.5020980000000002E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99824489999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>6.2630850000000002E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.49276019999999998</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.06964</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4.6766969999999998E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.73771319999999996</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3.3170720000000001E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.99082029999999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>991.9194</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45145.425833333335</v>
+      </c>
+      <c r="B4" s="3">
+        <v>11.555440000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.112628</v>
+      </c>
+      <c r="D4" s="3">
+        <v>87.109960000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <v>96.490009999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.5089079999999997E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99825929999999996</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6.2721040000000006E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.63581069999999995</v>
+      </c>
+      <c r="J4" s="3">
+        <v>19.990279999999998</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9.6957810000000005E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.85058389999999995</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6.8340880000000007E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.94379599999999997</v>
+      </c>
+      <c r="O4" s="3">
+        <v>991.87639999999999</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45145.425844907404</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11.558669999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1192909999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>87.107849999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>96.505330000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.5096459999999998E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99826110000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6.272896E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.64686809999999995</v>
+      </c>
+      <c r="J5" s="3">
+        <v>19.98293</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9.9029430000000002E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.85477519999999996</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6.9658819999999996E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.94164650000000005</v>
+      </c>
+      <c r="O5" s="3">
+        <v>991.8741</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45145.425856481481</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11.56189</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.1259540000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>87.105729999999994</v>
+      </c>
+      <c r="E6" s="3">
+        <v>96.520650000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.5103839999999999E-2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99826289999999995</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6.2736899999999998E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.65792539999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>19.97559</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.101101</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.85896649999999997</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7.0976769999999995E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.93949700000000003</v>
+      </c>
+      <c r="O6" s="3">
+        <v>991.87180000000001</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45145.425868055558</v>
+      </c>
+      <c r="B7" s="3">
+        <v>11.50027</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.243201</v>
+      </c>
+      <c r="D7" s="3">
+        <v>87.098600000000005</v>
+      </c>
+      <c r="E7" s="3">
+        <v>96.642250000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.5162359999999999E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99827639999999995</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.2855279999999999E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.59005660000000004</v>
+      </c>
+      <c r="J7" s="3">
+        <v>19.840260000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>7.145667E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.79202919999999999</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5.0239039999999999E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.96207509999999996</v>
+      </c>
+      <c r="O7" s="3">
+        <v>991.8623</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45145.425879629627</v>
+      </c>
+      <c r="B8" s="3">
+        <v>11.498250000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.2527460000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>87.098110000000005</v>
+      </c>
+      <c r="E8" s="3">
+        <v>96.6524</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.5167239999999997E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99827739999999998</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.2863950000000002E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.58955849999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19.8309</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.0915069999999997E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.79078559999999998</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4.985825E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.96228919999999996</v>
+      </c>
+      <c r="O8" s="3">
+        <v>991.86080000000004</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45145.425891203704</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11.496230000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.2622900000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>87.097620000000006</v>
+      </c>
+      <c r="E9" s="3">
+        <v>96.662549999999996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.5172129999999998E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99827860000000002</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6.2872629999999999E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.58906049999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>19.821529999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7.0373459999999999E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.78954199999999997</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4.9477470000000003E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.96250309999999994</v>
+      </c>
+      <c r="O9" s="3">
+        <v>991.85940000000005</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45145.425902777781</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11.514239999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.244726</v>
+      </c>
+      <c r="D10" s="3">
+        <v>87.191410000000005</v>
+      </c>
+      <c r="E10" s="3">
+        <v>96.908670000000001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.529097E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99829230000000002</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6.2994969999999997E-2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.53544349999999996</v>
+      </c>
+      <c r="J10" s="3">
+        <v>19.819839999999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.4144642</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.5796790000000001</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.29139739999999997</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.994865</v>
+      </c>
+      <c r="O10" s="3">
+        <v>991.83370000000002</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45145.42591435185</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11.513809999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.2465330000000003</v>
+      </c>
+      <c r="D11" s="3">
+        <v>87.196309999999997</v>
+      </c>
+      <c r="E11" s="3">
+        <v>96.925070000000005</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.5298890000000001E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99829330000000005</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6.3004459999999998E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.53107479999999996</v>
+      </c>
+      <c r="J11" s="3">
+        <v>19.81653</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.43251339999999999</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1.621143</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.3040872</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.99713589999999996</v>
+      </c>
+      <c r="O11" s="3">
+        <v>991.83199999999999</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45145.425925925927</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11.513389999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.2483399999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>87.201220000000006</v>
+      </c>
+      <c r="E12" s="3">
+        <v>96.941479999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.5306810000000003E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99829440000000003</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6.3013959999999994E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.52670620000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>19.813210000000002</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.45056269999999998</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.6626069999999999</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.31677709999999998</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.99940680000000004</v>
+      </c>
+      <c r="O12" s="3">
+        <v>991.83040000000005</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.861533700000003</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.110638679999994</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45145.425937499997</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11.226699999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.5543129999999996</v>
+      </c>
+      <c r="D13" s="3">
+        <v>87.190950000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>97.148920000000004</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.5406559999999999E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99831599999999998</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6.3147800000000004E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.59526029999999996</v>
+      </c>
+      <c r="J13" s="3">
+        <v>19.640910000000002</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.98636380000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2.902825</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.69348279999999995</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.9595532</v>
+      </c>
+      <c r="O13" s="3">
+        <v>991.88319999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.86153015</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.110651070000003</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45145.425949074073</v>
+      </c>
+      <c r="B14" s="3">
+        <v>11.21147</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4.570716</v>
+      </c>
+      <c r="D14" s="3">
+        <v>87.192539999999994</v>
+      </c>
+      <c r="E14" s="3">
+        <v>97.166020000000003</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.5414789999999997E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99831749999999997</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.3158039999999999E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.59774740000000004</v>
+      </c>
+      <c r="J14" s="3">
+        <v>19.631340000000002</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.0234160000000001</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.9884460000000002</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.71953339999999999</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.95813199999999998</v>
+      </c>
+      <c r="O14" s="3">
+        <v>991.88549999999998</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.86153015</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.110651070000003</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45145.42596064815</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11.19624</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.5871199999999996</v>
+      </c>
+      <c r="D15" s="3">
+        <v>87.194119999999998</v>
+      </c>
+      <c r="E15" s="3">
+        <v>97.183109999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4.5423030000000003E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99831910000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.3168260000000004E-2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.60023459999999995</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19.621770000000001</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.0604690000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.0740669999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.74558400000000002</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.95671070000000002</v>
+      </c>
+      <c r="O15" s="3">
+        <v>991.88779999999997</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.86153015</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.110651070000003</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45145.42597222222</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10.9116</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4.503228</v>
+      </c>
+      <c r="D16" s="3">
+        <v>86.564689999999999</v>
+      </c>
+      <c r="E16" s="3">
+        <v>95.794240000000002</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.4745739999999999E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99839710000000004</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6.2266259999999997E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.67741150000000006</v>
+      </c>
+      <c r="J16" s="3">
+        <v>19.552320000000002</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.924526</v>
+      </c>
+      <c r="L16" s="3">
+        <v>5.0644830000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.3530770000000001</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.94809730000000003</v>
+      </c>
+      <c r="O16" s="3">
+        <v>991.87080000000003</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.86153015</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.110651070000003</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4">
+        <v>45145.425983796296</v>
+      </c>
+      <c r="B17" s="3">
+        <v>10.88968</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.5058769999999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>86.530820000000006</v>
+      </c>
+      <c r="E17" s="3">
+        <v>95.724930000000001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4.4711899999999999E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99840180000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6.2221199999999997E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.68306149999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>19.544530000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.983571</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5.200634</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.3945890000000001</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.94674970000000003</v>
+      </c>
+      <c r="O17" s="3">
+        <v>991.87109999999996</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.86153015</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.110651070000003</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4">
+        <v>45145.425995370373</v>
+      </c>
+      <c r="B18" s="3">
+        <v>10.867760000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.508527</v>
+      </c>
+      <c r="D18" s="3">
+        <v>86.496930000000006</v>
+      </c>
+      <c r="E18" s="3">
+        <v>95.655619999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4.467807E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99840640000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6.2176149999999999E-2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.68871150000000003</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19.536740000000002</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.0426160000000002</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.3367839999999998</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.436102</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.94540210000000002</v>
+      </c>
+      <c r="O18" s="3">
+        <v>991.87139999999999</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.86153015</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.110651070000003</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45145.426006944443</v>
+      </c>
+      <c r="B19" s="3">
+        <v>10.831200000000001</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.400264</v>
+      </c>
+      <c r="D19" s="3">
+        <v>83.632869999999997</v>
+      </c>
+      <c r="E19" s="3">
+        <v>94.769289999999998</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.4243150000000002E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99848970000000004</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6.1600050000000003E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.65091750000000004</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.79252</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.6257860000000002</v>
+      </c>
+      <c r="L19" s="3">
+        <v>6.6775209999999996</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.8461110000000001</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.94624770000000002</v>
+      </c>
+      <c r="O19" s="3">
+        <v>991.93880000000001</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.86153015</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.110651070000003</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>45145.425810185188</v>
+        <v>45145.426018518519</v>
       </c>
       <c r="B20" s="3">
-        <v>11.495189999999999</v>
+        <v>10.8225</v>
       </c>
       <c r="C20" s="3">
-        <v>3.9731540000000001</v>
+        <v>4.3931190000000004</v>
       </c>
       <c r="D20" s="3">
-        <v>87.11636</v>
+        <v>83.471990000000005</v>
       </c>
       <c r="E20" s="3">
-        <v>96.328410000000005</v>
+        <v>94.692440000000005</v>
       </c>
       <c r="F20" s="3">
-        <v>4.5011250000000003E-2</v>
+        <v>4.4205519999999998E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>0.99824210000000002</v>
+        <v>0.99849580000000004</v>
       </c>
       <c r="H20" s="3">
-        <v>6.2620469999999998E-2</v>
+        <v>6.155008E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>0.49059160000000002</v>
+        <v>0.65080340000000003</v>
       </c>
       <c r="J20" s="3">
-        <v>20.079979999999999</v>
+        <v>18.752690000000001</v>
       </c>
       <c r="K20" s="3">
-        <v>4.8831760000000002E-2</v>
+        <v>2.6761569999999999</v>
       </c>
       <c r="L20" s="3">
-        <v>0.7429962</v>
+        <v>6.7934239999999999</v>
       </c>
       <c r="M20" s="3">
-        <v>3.4809619999999999E-2</v>
+        <v>1.881526</v>
       </c>
       <c r="N20" s="3">
-        <v>0.9893883</v>
+        <v>0.94606630000000003</v>
       </c>
       <c r="O20" s="3">
-        <v>991.91970000000003</v>
+        <v>991.94200000000001</v>
       </c>
       <c r="P20" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86153015</v>
       </c>
       <c r="Q20" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110651070000003</v>
       </c>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>45145.425821759258</v>
+        <v>45145.426030092596</v>
       </c>
       <c r="B21" s="3">
-        <v>11.49193</v>
+        <v>10.81381</v>
       </c>
       <c r="C21" s="3">
-        <v>3.973811</v>
+        <v>4.385974</v>
       </c>
       <c r="D21" s="3">
-        <v>87.110470000000007</v>
+        <v>83.311120000000003</v>
       </c>
       <c r="E21" s="3">
-        <v>96.348619999999997</v>
+        <v>94.615570000000005</v>
       </c>
       <c r="F21" s="3">
-        <v>4.5020980000000002E-2</v>
+        <v>4.4167900000000003E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>0.99824489999999999</v>
+        <v>0.99850179999999999</v>
       </c>
       <c r="H21" s="3">
-        <v>6.2630850000000002E-2</v>
+        <v>6.1500119999999998E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>0.49276019999999998</v>
+        <v>0.65068919999999997</v>
       </c>
       <c r="J21" s="3">
-        <v>20.06964</v>
+        <v>18.71285</v>
       </c>
       <c r="K21" s="3">
-        <v>4.6766969999999998E-2</v>
+        <v>2.7265269999999999</v>
       </c>
       <c r="L21" s="3">
-        <v>0.73771319999999996</v>
+        <v>6.9093260000000001</v>
       </c>
       <c r="M21" s="3">
-        <v>3.3170720000000001E-2</v>
+        <v>1.9169400000000001</v>
       </c>
       <c r="N21" s="3">
-        <v>0.99082029999999999</v>
+        <v>0.94588479999999997</v>
       </c>
       <c r="O21" s="3">
-        <v>991.9194</v>
+        <v>991.94510000000002</v>
       </c>
       <c r="P21" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86153015</v>
       </c>
       <c r="Q21" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110651070000003</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>45145.425833333335</v>
+        <v>45145.426041666666</v>
       </c>
       <c r="B22" s="3">
-        <v>11.555440000000001</v>
+        <v>10.947570000000001</v>
       </c>
       <c r="C22" s="3">
-        <v>4.112628</v>
+        <v>4.8819340000000002</v>
       </c>
       <c r="D22" s="3">
-        <v>87.109960000000001</v>
+        <v>75.663340000000005</v>
       </c>
       <c r="E22" s="3">
-        <v>96.490009999999998</v>
+        <v>87.893709999999999</v>
       </c>
       <c r="F22" s="3">
-        <v>4.5089079999999997E-2</v>
+        <v>4.089226E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>0.99825929999999996</v>
+        <v>0.99899859999999996</v>
       </c>
       <c r="H22" s="3">
-        <v>6.2721040000000006E-2</v>
+        <v>5.4322160000000001E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>0.63581069999999995</v>
+        <v>0.75506240000000002</v>
       </c>
       <c r="J22" s="3">
-        <v>19.990279999999998</v>
+        <v>17.680099999999999</v>
       </c>
       <c r="K22" s="3">
-        <v>9.6957810000000005E-2</v>
+        <v>4.7611929999999996</v>
       </c>
       <c r="L22" s="3">
-        <v>0.85058389999999995</v>
+        <v>11.5968</v>
       </c>
       <c r="M22" s="3">
-        <v>6.8340880000000007E-2</v>
+        <v>3.3474520000000001</v>
       </c>
       <c r="N22" s="3">
-        <v>0.94379599999999997</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="O22" s="3">
-        <v>991.87639999999999</v>
+        <v>991.86170000000004</v>
       </c>
       <c r="P22" s="3">
-        <v>46.861533700000003</v>
+        <v>46.861519680000001</v>
       </c>
       <c r="Q22" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110656700000007</v>
       </c>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45145.425844907404</v>
+        <v>45145.426053240742</v>
       </c>
       <c r="B23" s="3">
-        <v>11.558669999999999</v>
+        <v>10.953419999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>4.1192909999999996</v>
+        <v>4.9055090000000003</v>
       </c>
       <c r="D23" s="3">
-        <v>87.107849999999999</v>
+        <v>75.206329999999994</v>
       </c>
       <c r="E23" s="3">
-        <v>96.505330000000001</v>
+        <v>87.525360000000006</v>
       </c>
       <c r="F23" s="3">
-        <v>4.5096459999999998E-2</v>
+        <v>4.0712699999999998E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99826110000000001</v>
+        <v>0.99902619999999998</v>
       </c>
       <c r="H23" s="3">
-        <v>6.272896E-2</v>
+        <v>5.3936909999999998E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>0.64686809999999995</v>
+        <v>0.75978389999999996</v>
       </c>
       <c r="J23" s="3">
-        <v>19.98293</v>
+        <v>17.610900000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>9.9029430000000002E-2</v>
+        <v>4.8798300000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>0.85477519999999996</v>
+        <v>11.87007</v>
       </c>
       <c r="M23" s="3">
-        <v>6.9658819999999996E-2</v>
+        <v>3.4308619999999999</v>
       </c>
       <c r="N23" s="3">
-        <v>0.94164650000000005</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="O23" s="3">
-        <v>991.8741</v>
+        <v>991.85879999999997</v>
       </c>
       <c r="P23" s="3">
-        <v>46.861533700000003</v>
+        <v>46.861519680000001</v>
       </c>
       <c r="Q23" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110656700000007</v>
       </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45145.425856481481</v>
+        <v>45145.426064814812</v>
       </c>
       <c r="B24" s="3">
-        <v>11.56189</v>
+        <v>10.95926</v>
       </c>
       <c r="C24" s="3">
-        <v>4.1259540000000001</v>
+        <v>4.9290849999999997</v>
       </c>
       <c r="D24" s="3">
-        <v>87.105729999999994</v>
+        <v>74.74933</v>
       </c>
       <c r="E24" s="3">
-        <v>96.520650000000003</v>
+        <v>87.15701</v>
       </c>
       <c r="F24" s="3">
-        <v>4.5103839999999999E-2</v>
+        <v>4.0533130000000001E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99826289999999995</v>
+        <v>0.99905379999999999</v>
       </c>
       <c r="H24" s="3">
-        <v>6.2736899999999998E-2</v>
+        <v>5.3551649999999999E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0.65792539999999999</v>
+        <v>0.76450549999999995</v>
       </c>
       <c r="J24" s="3">
-        <v>19.97559</v>
+        <v>17.541699999999999</v>
       </c>
       <c r="K24" s="3">
-        <v>0.101101</v>
+        <v>4.9984659999999996</v>
       </c>
       <c r="L24" s="3">
-        <v>0.85896649999999997</v>
+        <v>12.143330000000001</v>
       </c>
       <c r="M24" s="3">
-        <v>7.0976769999999995E-2</v>
+        <v>3.5142720000000001</v>
       </c>
       <c r="N24" s="3">
-        <v>0.93949700000000003</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="O24" s="3">
-        <v>991.87180000000001</v>
+        <v>991.85580000000004</v>
       </c>
       <c r="P24" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86151684</v>
       </c>
       <c r="Q24" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110673239999997</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45145.425868055558</v>
+        <v>45145.426076388889</v>
       </c>
       <c r="B25" s="3">
-        <v>11.50027</v>
+        <v>11.053570000000001</v>
       </c>
       <c r="C25" s="3">
-        <v>4.243201</v>
+        <v>4.8009199999999996</v>
       </c>
       <c r="D25" s="3">
-        <v>87.098600000000005</v>
+        <v>65.49051</v>
       </c>
       <c r="E25" s="3">
-        <v>96.642250000000004</v>
+        <v>82.530619999999999</v>
       </c>
       <c r="F25" s="3">
-        <v>4.5162359999999999E-2</v>
+        <v>3.8191089999999997E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99827639999999995</v>
+        <v>0.99928530000000004</v>
       </c>
       <c r="H25" s="3">
-        <v>6.2855279999999999E-2</v>
+        <v>5.3257279999999997E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>0.59005660000000004</v>
+        <v>0.67938900000000002</v>
       </c>
       <c r="J25" s="3">
-        <v>19.840260000000001</v>
+        <v>15.66479</v>
       </c>
       <c r="K25" s="3">
-        <v>7.145667E-2</v>
+        <v>6.4547549999999996</v>
       </c>
       <c r="L25" s="3">
-        <v>0.79202919999999999</v>
+        <v>15.492010000000001</v>
       </c>
       <c r="M25" s="3">
-        <v>5.0239039999999999E-2</v>
+        <v>4.538144</v>
       </c>
       <c r="N25" s="3">
-        <v>0.96207509999999996</v>
+        <v>0.92320400000000002</v>
       </c>
       <c r="O25" s="3">
-        <v>991.8623</v>
+        <v>991.89580000000001</v>
       </c>
       <c r="P25" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86151684</v>
       </c>
       <c r="Q25" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110673239999997</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45145.425879629627</v>
+        <v>45145.426087962966</v>
       </c>
       <c r="B26" s="3">
-        <v>11.498250000000001</v>
+        <v>11.06123</v>
       </c>
       <c r="C26" s="3">
-        <v>4.2527460000000001</v>
+        <v>4.8045840000000002</v>
       </c>
       <c r="D26" s="3">
-        <v>87.098110000000005</v>
+        <v>64.846360000000004</v>
       </c>
       <c r="E26" s="3">
-        <v>96.6524</v>
+        <v>82.14761</v>
       </c>
       <c r="F26" s="3">
-        <v>4.5167239999999997E-2</v>
+        <v>3.7999850000000002E-2</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99827739999999998</v>
+        <v>0.99930779999999997</v>
       </c>
       <c r="H26" s="3">
-        <v>6.2863950000000002E-2</v>
+        <v>5.3091720000000002E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>0.58955849999999999</v>
+        <v>0.67714770000000002</v>
       </c>
       <c r="J26" s="3">
-        <v>19.8309</v>
+        <v>15.545109999999999</v>
       </c>
       <c r="K26" s="3">
-        <v>7.0915069999999997E-2</v>
+        <v>6.5736470000000002</v>
       </c>
       <c r="L26" s="3">
-        <v>0.79078559999999998</v>
+        <v>15.76558</v>
       </c>
       <c r="M26" s="3">
-        <v>4.985825E-2</v>
+        <v>4.621734</v>
       </c>
       <c r="N26" s="3">
-        <v>0.96228919999999996</v>
+        <v>0.92200979999999999</v>
       </c>
       <c r="O26" s="3">
-        <v>991.86080000000004</v>
+        <v>991.89610000000005</v>
       </c>
       <c r="P26" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86151684</v>
       </c>
       <c r="Q26" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110673239999997</v>
       </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45145.425891203704</v>
+        <v>45145.426099537035</v>
       </c>
       <c r="B27" s="3">
-        <v>11.496230000000001</v>
+        <v>11.068899999999999</v>
       </c>
       <c r="C27" s="3">
-        <v>4.2622900000000001</v>
+        <v>4.8082479999999999</v>
       </c>
       <c r="D27" s="3">
-        <v>87.097620000000006</v>
+        <v>64.202209999999994</v>
       </c>
       <c r="E27" s="3">
-        <v>96.662549999999996</v>
+        <v>81.764589999999998</v>
       </c>
       <c r="F27" s="3">
-        <v>4.5172129999999998E-2</v>
+        <v>3.7808620000000001E-2</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99827860000000002</v>
+        <v>0.9993303</v>
       </c>
       <c r="H27" s="3">
-        <v>6.2872629999999999E-2</v>
+        <v>5.2926149999999998E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>0.58906049999999999</v>
+        <v>0.67490649999999996</v>
       </c>
       <c r="J27" s="3">
-        <v>19.821529999999999</v>
+        <v>15.425420000000001</v>
       </c>
       <c r="K27" s="3">
-        <v>7.0373459999999999E-2</v>
+        <v>6.6925379999999999</v>
       </c>
       <c r="L27" s="3">
-        <v>0.78954199999999997</v>
+        <v>16.039149999999999</v>
       </c>
       <c r="M27" s="3">
-        <v>4.9477470000000003E-2</v>
+        <v>4.7053229999999999</v>
       </c>
       <c r="N27" s="3">
-        <v>0.96250309999999994</v>
+        <v>0.92081550000000001</v>
       </c>
       <c r="O27" s="3">
-        <v>991.85940000000005</v>
+        <v>991.89639999999997</v>
       </c>
       <c r="P27" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86151684</v>
       </c>
       <c r="Q27" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110673239999997</v>
       </c>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45145.425902777781</v>
+        <v>45145.426111111112</v>
       </c>
       <c r="B28" s="3">
-        <v>11.514239999999999</v>
+        <v>11.07657</v>
       </c>
       <c r="C28" s="3">
-        <v>4.244726</v>
+        <v>4.8119110000000003</v>
       </c>
       <c r="D28" s="3">
-        <v>87.191410000000005</v>
+        <v>63.558059999999998</v>
       </c>
       <c r="E28" s="3">
-        <v>96.908670000000001</v>
+        <v>81.381569999999996</v>
       </c>
       <c r="F28" s="3">
-        <v>4.529097E-2</v>
+        <v>3.7617390000000001E-2</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99829230000000002</v>
+        <v>0.99935280000000004</v>
       </c>
       <c r="H28" s="3">
-        <v>6.2994969999999997E-2</v>
+        <v>5.276057E-2</v>
       </c>
       <c r="I28" s="3">
-        <v>0.53544349999999996</v>
+        <v>0.67266519999999996</v>
       </c>
       <c r="J28" s="3">
-        <v>19.819839999999999</v>
+        <v>15.30574</v>
       </c>
       <c r="K28" s="3">
-        <v>0.4144642</v>
+        <v>6.8114299999999997</v>
       </c>
       <c r="L28" s="3">
-        <v>1.5796790000000001</v>
+        <v>16.312729999999998</v>
       </c>
       <c r="M28" s="3">
-        <v>0.29139739999999997</v>
+        <v>4.7889119999999998</v>
       </c>
       <c r="N28" s="3">
-        <v>0.994865</v>
+        <v>0.91962129999999997</v>
       </c>
       <c r="O28" s="3">
-        <v>991.83370000000002</v>
+        <v>991.89670000000001</v>
       </c>
       <c r="P28" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86151684</v>
       </c>
       <c r="Q28" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110673239999997</v>
       </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45145.42591435185</v>
+        <v>45145.426122685189</v>
       </c>
       <c r="B29" s="3">
-        <v>11.513809999999999</v>
+        <v>10.965109999999999</v>
       </c>
       <c r="C29" s="3">
-        <v>4.2465330000000003</v>
+        <v>5.2728979999999996</v>
       </c>
       <c r="D29" s="3">
-        <v>87.196309999999997</v>
+        <v>64.318280000000001</v>
       </c>
       <c r="E29" s="3">
-        <v>96.925070000000005</v>
+        <v>85.329350000000005</v>
       </c>
       <c r="F29" s="3">
-        <v>4.5298890000000001E-2</v>
+        <v>3.945133E-2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99829330000000005</v>
+        <v>0.99960439999999995</v>
       </c>
       <c r="H29" s="3">
-        <v>6.3004459999999998E-2</v>
+        <v>5.5954990000000003E-2</v>
       </c>
       <c r="I29" s="3">
-        <v>0.53107479999999996</v>
+        <v>0.70264150000000003</v>
       </c>
       <c r="J29" s="3">
-        <v>19.81653</v>
+        <v>12.29251</v>
       </c>
       <c r="K29" s="3">
-        <v>0.43251339999999999</v>
+        <v>8.7527399999999993</v>
       </c>
       <c r="L29" s="3">
-        <v>1.621143</v>
+        <v>20.809660000000001</v>
       </c>
       <c r="M29" s="3">
-        <v>0.3040872</v>
+        <v>6.1537889999999997</v>
       </c>
       <c r="N29" s="3">
-        <v>0.99713589999999996</v>
+        <v>0.94332910000000003</v>
       </c>
       <c r="O29" s="3">
-        <v>991.83199999999999</v>
+        <v>991.97760000000005</v>
       </c>
       <c r="P29" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86151684</v>
       </c>
       <c r="Q29" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110673239999997</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45145.425925925927</v>
+        <v>45145.426134259258</v>
       </c>
       <c r="B30" s="3">
-        <v>11.513389999999999</v>
+        <v>10.961729999999999</v>
       </c>
       <c r="C30" s="3">
-        <v>4.2483399999999998</v>
+        <v>5.2932709999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>87.201220000000006</v>
+        <v>64.144310000000004</v>
       </c>
       <c r="E30" s="3">
-        <v>96.941479999999999</v>
+        <v>85.41892</v>
       </c>
       <c r="F30" s="3">
-        <v>4.5306810000000003E-2</v>
+        <v>3.9488540000000003E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99829440000000003</v>
+        <v>0.99962240000000002</v>
       </c>
       <c r="H30" s="3">
-        <v>6.3013959999999994E-2</v>
+        <v>5.6104010000000003E-2</v>
       </c>
       <c r="I30" s="3">
-        <v>0.52670620000000001</v>
+        <v>0.70227949999999995</v>
       </c>
       <c r="J30" s="3">
-        <v>19.813210000000002</v>
+        <v>12.099489999999999</v>
       </c>
       <c r="K30" s="3">
-        <v>0.45056269999999998</v>
+        <v>8.8833590000000004</v>
       </c>
       <c r="L30" s="3">
-        <v>1.6626069999999999</v>
+        <v>21.11167</v>
       </c>
       <c r="M30" s="3">
-        <v>0.31677709999999998</v>
+        <v>6.2456240000000003</v>
       </c>
       <c r="N30" s="3">
-        <v>0.99940680000000004</v>
+        <v>0.94400010000000001</v>
       </c>
       <c r="O30" s="3">
-        <v>991.83040000000005</v>
+        <v>991.98249999999996</v>
       </c>
       <c r="P30" s="3">
-        <v>46.861533700000003</v>
+        <v>46.86151684</v>
       </c>
       <c r="Q30" s="3">
-        <v>-91.110638679999994</v>
+        <v>-91.110673239999997</v>
       </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45145.425937499997</v>
+        <v>45145.426145833335</v>
       </c>
       <c r="B31" s="3">
-        <v>11.226699999999999</v>
+        <v>10.958349999999999</v>
       </c>
       <c r="C31" s="3">
-        <v>4.5543129999999996</v>
+        <v>5.3136429999999999</v>
       </c>
       <c r="D31" s="3">
-        <v>87.190950000000001</v>
+        <v>63.97034</v>
       </c>
       <c r="E31" s="3">
-        <v>97.148920000000004</v>
+        <v>85.508510000000001</v>
       </c>
       <c r="F31" s="3">
-        <v>4.5406559999999999E-2</v>
+        <v>3.9525749999999998E-2</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99831599999999998</v>
+        <v>0.99964039999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>6.3147800000000004E-2</v>
+        <v>5.6253020000000001E-2</v>
       </c>
       <c r="I31" s="3">
-        <v>0.59526029999999996</v>
+        <v>0.70191749999999997</v>
       </c>
       <c r="J31" s="3">
-        <v>19.640910000000002</v>
+        <v>11.906470000000001</v>
       </c>
       <c r="K31" s="3">
-        <v>0.98636380000000001</v>
+        <v>9.0139790000000009</v>
       </c>
       <c r="L31" s="3">
-        <v>2.902825</v>
+        <v>21.41367</v>
       </c>
       <c r="M31" s="3">
-        <v>0.69348279999999995</v>
+        <v>6.3374579999999998</v>
       </c>
       <c r="N31" s="3">
-        <v>0.9595532</v>
+        <v>0.94467120000000004</v>
       </c>
       <c r="O31" s="3">
-        <v>991.88319999999999</v>
+        <v>991.98739999999998</v>
       </c>
       <c r="P31" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q31" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45145.425949074073</v>
+        <v>45145.426157407404</v>
       </c>
       <c r="B32" s="3">
-        <v>11.21147</v>
+        <v>11.30846</v>
       </c>
       <c r="C32" s="3">
-        <v>4.570716</v>
+        <v>5.292713</v>
       </c>
       <c r="D32" s="3">
-        <v>87.192539999999994</v>
+        <v>62.686030000000002</v>
       </c>
       <c r="E32" s="3">
-        <v>97.166020000000003</v>
+        <v>86.62388</v>
       </c>
       <c r="F32" s="3">
-        <v>4.5414789999999997E-2</v>
+        <v>3.997556E-2</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99831749999999997</v>
+        <v>0.99969110000000005</v>
       </c>
       <c r="H32" s="3">
-        <v>6.3158039999999999E-2</v>
+        <v>5.637168E-2</v>
       </c>
       <c r="I32" s="3">
-        <v>0.59774740000000004</v>
+        <v>0.80128779999999999</v>
       </c>
       <c r="J32" s="3">
-        <v>19.631340000000002</v>
+        <v>11.132860000000001</v>
       </c>
       <c r="K32" s="3">
-        <v>1.0234160000000001</v>
+        <v>9.9742859999999993</v>
       </c>
       <c r="L32" s="3">
-        <v>2.9884460000000002</v>
+        <v>23.621590000000001</v>
       </c>
       <c r="M32" s="3">
-        <v>0.71953339999999999</v>
+        <v>7.0126210000000002</v>
       </c>
       <c r="N32" s="3">
-        <v>0.95813199999999998</v>
+        <v>0.91393690000000005</v>
       </c>
       <c r="O32" s="3">
-        <v>991.88549999999998</v>
+        <v>991.91759999999999</v>
       </c>
       <c r="P32" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q32" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45145.42596064815</v>
+        <v>45145.426168981481</v>
       </c>
       <c r="B33" s="3">
-        <v>11.19624</v>
+        <v>11.323930000000001</v>
       </c>
       <c r="C33" s="3">
-        <v>4.5871199999999996</v>
+        <v>5.3014289999999997</v>
       </c>
       <c r="D33" s="3">
-        <v>87.194119999999998</v>
+        <v>62.625590000000003</v>
       </c>
       <c r="E33" s="3">
-        <v>97.183109999999999</v>
+        <v>86.755889999999994</v>
       </c>
       <c r="F33" s="3">
-        <v>4.5423030000000003E-2</v>
+        <v>4.0033199999999998E-2</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99831910000000001</v>
+        <v>0.99969940000000002</v>
       </c>
       <c r="H33" s="3">
-        <v>6.3168260000000004E-2</v>
+        <v>5.6441280000000003E-2</v>
       </c>
       <c r="I33" s="3">
-        <v>0.60023459999999995</v>
+        <v>0.80689999999999995</v>
       </c>
       <c r="J33" s="3">
-        <v>19.621770000000001</v>
+        <v>11.028510000000001</v>
       </c>
       <c r="K33" s="3">
-        <v>1.0604690000000001</v>
+        <v>10.06565</v>
       </c>
       <c r="L33" s="3">
-        <v>3.0740669999999999</v>
+        <v>23.832350000000002</v>
       </c>
       <c r="M33" s="3">
-        <v>0.74558400000000002</v>
+        <v>7.076854</v>
       </c>
       <c r="N33" s="3">
-        <v>0.95671070000000002</v>
+        <v>0.91286339999999999</v>
       </c>
       <c r="O33" s="3">
-        <v>991.88779999999997</v>
+        <v>991.91579999999999</v>
       </c>
       <c r="P33" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q33" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45145.42597222222</v>
+        <v>45145.426180555558</v>
       </c>
       <c r="B34" s="3">
-        <v>10.9116</v>
+        <v>11.33939</v>
       </c>
       <c r="C34" s="3">
-        <v>4.503228</v>
+        <v>5.3101459999999996</v>
       </c>
       <c r="D34" s="3">
-        <v>86.564689999999999</v>
+        <v>62.565150000000003</v>
       </c>
       <c r="E34" s="3">
-        <v>95.794240000000002</v>
+        <v>86.887900000000002</v>
       </c>
       <c r="F34" s="3">
-        <v>4.4745739999999999E-2</v>
+        <v>4.0090830000000001E-2</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99839710000000004</v>
+        <v>0.99970760000000003</v>
       </c>
       <c r="H34" s="3">
-        <v>6.2266259999999997E-2</v>
+        <v>5.6510879999999999E-2</v>
       </c>
       <c r="I34" s="3">
-        <v>0.67741150000000006</v>
+        <v>0.81251200000000001</v>
       </c>
       <c r="J34" s="3">
-        <v>19.552320000000002</v>
+        <v>10.924149999999999</v>
       </c>
       <c r="K34" s="3">
-        <v>1.924526</v>
+        <v>10.15701</v>
       </c>
       <c r="L34" s="3">
-        <v>5.0644830000000001</v>
+        <v>24.043109999999999</v>
       </c>
       <c r="M34" s="3">
-        <v>1.3530770000000001</v>
+        <v>7.1410859999999996</v>
       </c>
       <c r="N34" s="3">
-        <v>0.94809730000000003</v>
+        <v>0.91178979999999998</v>
       </c>
       <c r="O34" s="3">
-        <v>991.87080000000003</v>
+        <v>991.91390000000001</v>
       </c>
       <c r="P34" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q34" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45145.425983796296</v>
+        <v>45145.426192129627</v>
       </c>
       <c r="B35" s="3">
-        <v>10.88968</v>
+        <v>11.555059999999999</v>
       </c>
       <c r="C35" s="3">
-        <v>4.5058769999999999</v>
+        <v>5.802162</v>
       </c>
       <c r="D35" s="3">
-        <v>86.530820000000006</v>
+        <v>62.285719999999998</v>
       </c>
       <c r="E35" s="3">
-        <v>95.724930000000001</v>
+        <v>87.529600000000002</v>
       </c>
       <c r="F35" s="3">
-        <v>4.4711899999999999E-2</v>
+        <v>4.036443E-2</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99840180000000001</v>
+        <v>0.99977400000000005</v>
       </c>
       <c r="H35" s="3">
-        <v>6.2221199999999997E-2</v>
+        <v>5.7401109999999998E-2</v>
       </c>
       <c r="I35" s="3">
-        <v>0.68306149999999999</v>
+        <v>0.87819400000000003</v>
       </c>
       <c r="J35" s="3">
-        <v>19.544530000000002</v>
+        <v>9.9675080000000005</v>
       </c>
       <c r="K35" s="3">
-        <v>1.983571</v>
+        <v>12.34018</v>
       </c>
       <c r="L35" s="3">
-        <v>5.200634</v>
+        <v>29.083929999999999</v>
       </c>
       <c r="M35" s="3">
-        <v>1.3945890000000001</v>
+        <v>8.6760090000000005</v>
       </c>
       <c r="N35" s="3">
-        <v>0.94674970000000003</v>
+        <v>0.90328790000000003</v>
       </c>
       <c r="O35" s="3">
-        <v>991.87109999999996</v>
+        <v>991.92939999999999</v>
       </c>
       <c r="P35" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q35" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45145.425995370373</v>
+        <v>45145.426203703704</v>
       </c>
       <c r="B36" s="3">
-        <v>10.867760000000001</v>
+        <v>11.57343</v>
       </c>
       <c r="C36" s="3">
-        <v>4.508527</v>
+        <v>5.8271249999999997</v>
       </c>
       <c r="D36" s="3">
-        <v>86.496930000000006</v>
+        <v>62.241419999999998</v>
       </c>
       <c r="E36" s="3">
-        <v>95.655619999999999</v>
+        <v>87.58587</v>
       </c>
       <c r="F36" s="3">
-        <v>4.467807E-2</v>
+        <v>4.0387810000000003E-2</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99840640000000003</v>
+        <v>0.99977870000000002</v>
       </c>
       <c r="H36" s="3">
-        <v>6.2176149999999999E-2</v>
+        <v>5.7450569999999999E-2</v>
       </c>
       <c r="I36" s="3">
-        <v>0.68871150000000003</v>
+        <v>0.88362370000000001</v>
       </c>
       <c r="J36" s="3">
-        <v>19.536740000000002</v>
+        <v>9.9002269999999992</v>
       </c>
       <c r="K36" s="3">
-        <v>2.0426160000000002</v>
+        <v>12.47368</v>
       </c>
       <c r="L36" s="3">
-        <v>5.3367839999999998</v>
+        <v>29.391970000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>1.436102</v>
+        <v>8.7698669999999996</v>
       </c>
       <c r="N36" s="3">
-        <v>0.94540210000000002</v>
+        <v>0.90221090000000004</v>
       </c>
       <c r="O36" s="3">
-        <v>991.87139999999999</v>
+        <v>991.92880000000002</v>
       </c>
       <c r="P36" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q36" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45145.426006944443</v>
+        <v>45145.426215277781</v>
       </c>
       <c r="B37" s="3">
-        <v>10.831200000000001</v>
+        <v>11.591810000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>4.400264</v>
+        <v>5.8520880000000002</v>
       </c>
       <c r="D37" s="3">
-        <v>83.632869999999997</v>
+        <v>62.197119999999998</v>
       </c>
       <c r="E37" s="3">
-        <v>94.769289999999998</v>
+        <v>87.642129999999995</v>
       </c>
       <c r="F37" s="3">
-        <v>4.4243150000000002E-2</v>
+        <v>4.0411179999999998E-2</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99848970000000004</v>
+        <v>0.99978330000000004</v>
       </c>
       <c r="H37" s="3">
-        <v>6.1600050000000003E-2</v>
+        <v>5.7500019999999999E-2</v>
       </c>
       <c r="I37" s="3">
-        <v>0.65091750000000004</v>
+        <v>0.88905339999999999</v>
       </c>
       <c r="J37" s="3">
-        <v>18.79252</v>
+        <v>9.8329439999999995</v>
       </c>
       <c r="K37" s="3">
-        <v>2.6257860000000002</v>
+        <v>12.60717</v>
       </c>
       <c r="L37" s="3">
-        <v>6.6775209999999996</v>
+        <v>29.700009999999999</v>
       </c>
       <c r="M37" s="3">
-        <v>1.8461110000000001</v>
+        <v>8.8637239999999995</v>
       </c>
       <c r="N37" s="3">
-        <v>0.94624770000000002</v>
+        <v>0.90113390000000004</v>
       </c>
       <c r="O37" s="3">
-        <v>991.93880000000001</v>
+        <v>991.92819999999995</v>
       </c>
       <c r="P37" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q37" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45145.426018518519</v>
+        <v>45145.426226851851</v>
       </c>
       <c r="B38" s="3">
-        <v>10.8225</v>
+        <v>11.74053</v>
       </c>
       <c r="C38" s="3">
-        <v>4.3931190000000004</v>
+        <v>6.2620950000000004</v>
       </c>
       <c r="D38" s="3">
-        <v>83.471990000000005</v>
+        <v>62.106229999999996</v>
       </c>
       <c r="E38" s="3">
-        <v>94.692440000000005</v>
+        <v>89.245009999999994</v>
       </c>
       <c r="F38" s="3">
-        <v>4.4205519999999998E-2</v>
+        <v>4.1117649999999999E-2</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99849580000000004</v>
+        <v>0.9998127</v>
       </c>
       <c r="H38" s="3">
-        <v>6.155008E-2</v>
+        <v>5.8070709999999998E-2</v>
       </c>
       <c r="I38" s="3">
-        <v>0.65080340000000003</v>
+        <v>1.037838</v>
       </c>
       <c r="J38" s="3">
-        <v>18.752690000000001</v>
+        <v>9.4724880000000002</v>
       </c>
       <c r="K38" s="3">
-        <v>2.6761569999999999</v>
+        <v>13.696</v>
       </c>
       <c r="L38" s="3">
-        <v>6.7934239999999999</v>
+        <v>32.20129</v>
       </c>
       <c r="M38" s="3">
-        <v>1.881526</v>
+        <v>9.6292469999999994</v>
       </c>
       <c r="N38" s="3">
-        <v>0.94606630000000003</v>
+        <v>0.90128750000000002</v>
       </c>
       <c r="O38" s="3">
-        <v>991.94200000000001</v>
+        <v>991.96339999999998</v>
       </c>
       <c r="P38" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q38" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45145.426030092596</v>
+        <v>45145.426238425927</v>
       </c>
       <c r="B39" s="3">
-        <v>10.81381</v>
+        <v>11.752829999999999</v>
       </c>
       <c r="C39" s="3">
-        <v>4.385974</v>
+        <v>6.2938409999999996</v>
       </c>
       <c r="D39" s="3">
-        <v>83.311120000000003</v>
+        <v>62.09552</v>
       </c>
       <c r="E39" s="3">
-        <v>94.615570000000005</v>
+        <v>89.342659999999995</v>
       </c>
       <c r="F39" s="3">
-        <v>4.4167900000000003E-2</v>
+        <v>4.1160509999999997E-2</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99850179999999999</v>
+        <v>0.99981580000000003</v>
       </c>
       <c r="H39" s="3">
-        <v>6.1500119999999998E-2</v>
+        <v>5.8119860000000002E-2</v>
       </c>
       <c r="I39" s="3">
-        <v>0.65068919999999997</v>
+        <v>1.0469520000000001</v>
       </c>
       <c r="J39" s="3">
-        <v>18.71285</v>
+        <v>9.4326980000000002</v>
       </c>
       <c r="K39" s="3">
-        <v>2.7265269999999999</v>
+        <v>13.79921</v>
       </c>
       <c r="L39" s="3">
-        <v>6.9093260000000001</v>
+        <v>32.438949999999998</v>
       </c>
       <c r="M39" s="3">
-        <v>1.9169400000000001</v>
+        <v>9.7018140000000006</v>
       </c>
       <c r="N39" s="3">
-        <v>0.94588479999999997</v>
+        <v>0.90111620000000003</v>
       </c>
       <c r="O39" s="3">
-        <v>991.94510000000002</v>
+        <v>991.96559999999999</v>
       </c>
       <c r="P39" s="3">
-        <v>46.86153015</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q39" s="3">
-        <v>-91.110651070000003</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45145.426041666666</v>
+        <v>45145.426249999997</v>
       </c>
       <c r="B40" s="3">
-        <v>10.947570000000001</v>
+        <v>11.76512</v>
       </c>
       <c r="C40" s="3">
-        <v>4.8819340000000002</v>
+        <v>6.3255879999999998</v>
       </c>
       <c r="D40" s="3">
-        <v>75.663340000000005</v>
+        <v>62.084809999999997</v>
       </c>
       <c r="E40" s="3">
-        <v>87.893709999999999</v>
+        <v>89.44032</v>
       </c>
       <c r="F40" s="3">
-        <v>4.089226E-2</v>
+        <v>4.1203370000000003E-2</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99899859999999996</v>
+        <v>0.99981869999999995</v>
       </c>
       <c r="H40" s="3">
-        <v>5.4322160000000001E-2</v>
+        <v>5.816901E-2</v>
       </c>
       <c r="I40" s="3">
-        <v>0.75506240000000002</v>
+        <v>1.0560670000000001</v>
       </c>
       <c r="J40" s="3">
-        <v>17.680099999999999</v>
+        <v>9.3929080000000003</v>
       </c>
       <c r="K40" s="3">
-        <v>4.7611929999999996</v>
+        <v>13.902430000000001</v>
       </c>
       <c r="L40" s="3">
-        <v>11.5968</v>
+        <v>32.676609999999997</v>
       </c>
       <c r="M40" s="3">
-        <v>3.3474520000000001</v>
+        <v>9.7743819999999992</v>
       </c>
       <c r="N40" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.90094490000000005</v>
       </c>
       <c r="O40" s="3">
-        <v>991.86170000000004</v>
+        <v>991.96770000000004</v>
       </c>
       <c r="P40" s="3">
-        <v>46.861519680000001</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q40" s="3">
-        <v>-91.110656700000007</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R40" s="3"/>
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45145.426053240742</v>
+        <v>45145.426261574074</v>
       </c>
       <c r="B41" s="3">
-        <v>10.953419999999999</v>
+        <v>11.837910000000001</v>
       </c>
       <c r="C41" s="3">
-        <v>4.9055090000000003</v>
+        <v>6.5760620000000003</v>
       </c>
       <c r="D41" s="3">
-        <v>75.206329999999994</v>
+        <v>61.990119999999997</v>
       </c>
       <c r="E41" s="3">
-        <v>87.525360000000006</v>
+        <v>89.835759999999993</v>
       </c>
       <c r="F41" s="3">
-        <v>4.0712699999999998E-2</v>
+        <v>4.1372579999999999E-2</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99902619999999998</v>
+        <v>0.99984799999999996</v>
       </c>
       <c r="H41" s="3">
-        <v>5.3936909999999998E-2</v>
+        <v>5.8774800000000002E-2</v>
       </c>
       <c r="I41" s="3">
-        <v>0.75978389999999996</v>
+        <v>1.0163930000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>17.610900000000001</v>
+        <v>8.8219899999999996</v>
       </c>
       <c r="K41" s="3">
-        <v>4.8798300000000001</v>
+        <v>16.056290000000001</v>
       </c>
       <c r="L41" s="3">
-        <v>11.87007</v>
+        <v>37.575710000000001</v>
       </c>
       <c r="M41" s="3">
-        <v>3.4308619999999999</v>
+        <v>11.288690000000001</v>
       </c>
       <c r="N41" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="O41" s="3">
-        <v>991.85879999999997</v>
+        <v>991.93430000000001</v>
       </c>
       <c r="P41" s="3">
-        <v>46.861519680000001</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q41" s="3">
-        <v>-91.110656700000007</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R41" s="3"/>
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45145.426064814812</v>
+        <v>45145.42627314815</v>
       </c>
       <c r="B42" s="3">
-        <v>10.95926</v>
+        <v>11.84491</v>
       </c>
       <c r="C42" s="3">
-        <v>4.9290849999999997</v>
+        <v>6.5977569999999996</v>
       </c>
       <c r="D42" s="3">
-        <v>74.74933</v>
+        <v>61.98301</v>
       </c>
       <c r="E42" s="3">
-        <v>87.15701</v>
+        <v>89.890410000000003</v>
       </c>
       <c r="F42" s="3">
-        <v>4.0533130000000001E-2</v>
+        <v>4.13964E-2</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99905379999999999</v>
+        <v>0.99985020000000002</v>
       </c>
       <c r="H42" s="3">
-        <v>5.3551649999999999E-2</v>
+        <v>5.88184E-2</v>
       </c>
       <c r="I42" s="3">
-        <v>0.76450549999999995</v>
+        <v>1.0174989999999999</v>
       </c>
       <c r="J42" s="3">
-        <v>17.541699999999999</v>
+        <v>8.7845259999999996</v>
       </c>
       <c r="K42" s="3">
-        <v>4.9984659999999996</v>
+        <v>16.191469999999999</v>
       </c>
       <c r="L42" s="3">
-        <v>12.143330000000001</v>
+        <v>37.88373</v>
       </c>
       <c r="M42" s="3">
-        <v>3.5142720000000001</v>
+        <v>11.38374</v>
       </c>
       <c r="N42" s="3">
-        <v>0.94599999999999995</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="O42" s="3">
-        <v>991.85580000000004</v>
+        <v>991.93320000000006</v>
       </c>
       <c r="P42" s="3">
-        <v>46.86151684</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q42" s="3">
-        <v>-91.110673239999997</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R42" s="3"/>
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45145.426076388889</v>
+        <v>45145.42628472222</v>
       </c>
       <c r="B43" s="3">
-        <v>11.053570000000001</v>
+        <v>11.85191</v>
       </c>
       <c r="C43" s="3">
-        <v>4.8009199999999996</v>
+        <v>6.6194519999999999</v>
       </c>
       <c r="D43" s="3">
-        <v>65.49051</v>
+        <v>61.975879999999997</v>
       </c>
       <c r="E43" s="3">
-        <v>82.530619999999999</v>
+        <v>89.945070000000001</v>
       </c>
       <c r="F43" s="3">
-        <v>3.8191089999999997E-2</v>
+        <v>4.1420209999999999E-2</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99928530000000004</v>
+        <v>0.99985239999999997</v>
       </c>
       <c r="H43" s="3">
-        <v>5.3257279999999997E-2</v>
+        <v>5.8861990000000003E-2</v>
       </c>
       <c r="I43" s="3">
-        <v>0.67938900000000002</v>
+        <v>1.0186040000000001</v>
       </c>
       <c r="J43" s="3">
-        <v>15.66479</v>
+        <v>8.7470630000000007</v>
       </c>
       <c r="K43" s="3">
-        <v>6.4547549999999996</v>
+        <v>16.32666</v>
       </c>
       <c r="L43" s="3">
-        <v>15.492010000000001</v>
+        <v>38.191749999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>4.538144</v>
+        <v>11.47879</v>
       </c>
       <c r="N43" s="3">
-        <v>0.92320400000000002</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="O43" s="3">
-        <v>991.89580000000001</v>
+        <v>991.93230000000005</v>
       </c>
       <c r="P43" s="3">
-        <v>46.86151684</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q43" s="3">
-        <v>-91.110673239999997</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45145.426087962966</v>
+        <v>45145.426296296297</v>
       </c>
       <c r="B44" s="3">
-        <v>11.06123</v>
+        <v>12.22641</v>
       </c>
       <c r="C44" s="3">
-        <v>4.8045840000000002</v>
+        <v>6.7378830000000001</v>
       </c>
       <c r="D44" s="3">
-        <v>64.846360000000004</v>
+        <v>61.988770000000002</v>
       </c>
       <c r="E44" s="3">
-        <v>82.14761</v>
+        <v>90.525859999999994</v>
       </c>
       <c r="F44" s="3">
-        <v>3.7999850000000002E-2</v>
+        <v>4.1676320000000003E-2</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99930779999999997</v>
+        <v>0.99985409999999997</v>
       </c>
       <c r="H44" s="3">
-        <v>5.3091720000000002E-2</v>
+        <v>5.8892529999999998E-2</v>
       </c>
       <c r="I44" s="3">
-        <v>0.67714770000000002</v>
+        <v>1.0783389999999999</v>
       </c>
       <c r="J44" s="3">
-        <v>15.545109999999999</v>
+        <v>8.5295529999999999</v>
       </c>
       <c r="K44" s="3">
-        <v>6.5736470000000002</v>
+        <v>16.61534</v>
       </c>
       <c r="L44" s="3">
-        <v>15.76558</v>
+        <v>38.433869999999999</v>
       </c>
       <c r="M44" s="3">
-        <v>4.621734</v>
+        <v>11.681749999999999</v>
       </c>
       <c r="N44" s="3">
-        <v>0.92200979999999999</v>
+        <v>0.93130650000000004</v>
       </c>
       <c r="O44" s="3">
-        <v>991.89610000000005</v>
+        <v>991.92280000000005</v>
       </c>
       <c r="P44" s="3">
-        <v>46.86151684</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q44" s="3">
-        <v>-91.110673239999997</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45145.426099537035</v>
+        <v>45145.426307870373</v>
       </c>
       <c r="B45" s="3">
-        <v>11.068899999999999</v>
+        <v>12.2475</v>
       </c>
       <c r="C45" s="3">
-        <v>4.8082479999999999</v>
+        <v>6.7492900000000002</v>
       </c>
       <c r="D45" s="3">
-        <v>64.202209999999994</v>
+        <v>61.987450000000003</v>
       </c>
       <c r="E45" s="3">
-        <v>81.764589999999998</v>
+        <v>90.5642</v>
       </c>
       <c r="F45" s="3">
-        <v>3.7808620000000001E-2</v>
+        <v>4.169312E-2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.9993303</v>
+        <v>0.99985489999999999</v>
       </c>
       <c r="H45" s="3">
-        <v>5.2926149999999998E-2</v>
+        <v>5.8906800000000002E-2</v>
       </c>
       <c r="I45" s="3">
-        <v>0.67490649999999996</v>
+        <v>1.080606</v>
       </c>
       <c r="J45" s="3">
-        <v>15.425420000000001</v>
+        <v>8.5061859999999996</v>
       </c>
       <c r="K45" s="3">
-        <v>6.6925379999999999</v>
+        <v>16.675550000000001</v>
       </c>
       <c r="L45" s="3">
-        <v>16.039149999999999</v>
+        <v>38.549160000000001</v>
       </c>
       <c r="M45" s="3">
-        <v>4.7053229999999999</v>
+        <v>11.724080000000001</v>
       </c>
       <c r="N45" s="3">
-        <v>0.92081550000000001</v>
+        <v>0.93288979999999999</v>
       </c>
       <c r="O45" s="3">
-        <v>991.89639999999997</v>
+        <v>991.92160000000001</v>
       </c>
       <c r="P45" s="3">
-        <v>46.86151684</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q45" s="3">
-        <v>-91.110673239999997</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45145.426111111112</v>
+        <v>45145.426319444443</v>
       </c>
       <c r="B46" s="3">
-        <v>11.07657</v>
+        <v>12.26858</v>
       </c>
       <c r="C46" s="3">
-        <v>4.8119110000000003</v>
+        <v>6.7606970000000004</v>
       </c>
       <c r="D46" s="3">
-        <v>63.558059999999998</v>
+        <v>61.98612</v>
       </c>
       <c r="E46" s="3">
-        <v>81.381569999999996</v>
+        <v>90.602549999999994</v>
       </c>
       <c r="F46" s="3">
-        <v>3.7617390000000001E-2</v>
+        <v>4.1709919999999998E-2</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99935280000000004</v>
+        <v>0.99985559999999996</v>
       </c>
       <c r="H46" s="3">
-        <v>5.276057E-2</v>
+        <v>5.8921080000000001E-2</v>
       </c>
       <c r="I46" s="3">
-        <v>0.67266519999999996</v>
+        <v>1.0828720000000001</v>
       </c>
       <c r="J46" s="3">
-        <v>15.30574</v>
+        <v>8.482818</v>
       </c>
       <c r="K46" s="3">
-        <v>6.8114299999999997</v>
+        <v>16.735759999999999</v>
       </c>
       <c r="L46" s="3">
-        <v>16.312729999999998</v>
+        <v>38.664459999999998</v>
       </c>
       <c r="M46" s="3">
-        <v>4.7889119999999998</v>
+        <v>11.76641</v>
       </c>
       <c r="N46" s="3">
-        <v>0.91962129999999997</v>
+        <v>0.93447309999999995</v>
       </c>
       <c r="O46" s="3">
-        <v>991.89670000000001</v>
+        <v>991.9203</v>
       </c>
       <c r="P46" s="3">
-        <v>46.86151684</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q46" s="3">
-        <v>-91.110673239999997</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45145.426122685189</v>
+        <v>45145.42633101852</v>
       </c>
       <c r="B47" s="3">
-        <v>10.965109999999999</v>
+        <v>12.289669999999999</v>
       </c>
       <c r="C47" s="3">
-        <v>5.2728979999999996</v>
+        <v>6.7721039999999997</v>
       </c>
       <c r="D47" s="3">
-        <v>64.318280000000001</v>
+        <v>61.9848</v>
       </c>
       <c r="E47" s="3">
-        <v>85.329350000000005</v>
+        <v>90.640889999999999</v>
       </c>
       <c r="F47" s="3">
-        <v>3.945133E-2</v>
+        <v>4.1726720000000002E-2</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99960439999999995</v>
+        <v>0.99985630000000003</v>
       </c>
       <c r="H47" s="3">
-        <v>5.5954990000000003E-2</v>
+        <v>5.8935349999999997E-2</v>
       </c>
       <c r="I47" s="3">
-        <v>0.70264150000000003</v>
+        <v>1.0851390000000001</v>
       </c>
       <c r="J47" s="3">
-        <v>12.29251</v>
+        <v>8.4594500000000004</v>
       </c>
       <c r="K47" s="3">
-        <v>8.7527399999999993</v>
+        <v>16.795970000000001</v>
       </c>
       <c r="L47" s="3">
-        <v>20.809660000000001</v>
+        <v>38.779769999999999</v>
       </c>
       <c r="M47" s="3">
-        <v>6.1537889999999997</v>
+        <v>11.80874</v>
       </c>
       <c r="N47" s="3">
-        <v>0.94332910000000003</v>
+        <v>0.93605629999999995</v>
       </c>
       <c r="O47" s="3">
-        <v>991.97760000000005</v>
+        <v>991.91920000000005</v>
       </c>
       <c r="P47" s="3">
-        <v>46.86151684</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q47" s="3">
-        <v>-91.110673239999997</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45145.426134259258</v>
+        <v>45145.426342592589</v>
       </c>
       <c r="B48" s="3">
-        <v>10.961729999999999</v>
+        <v>15.61129</v>
       </c>
       <c r="C48" s="3">
-        <v>5.2932709999999998</v>
+        <v>7.0160790000000004</v>
       </c>
       <c r="D48" s="3">
-        <v>64.144310000000004</v>
+        <v>62.45241</v>
       </c>
       <c r="E48" s="3">
-        <v>85.41892</v>
+        <v>91.225939999999994</v>
       </c>
       <c r="F48" s="3">
-        <v>3.9488540000000003E-2</v>
+        <v>4.2010739999999998E-2</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99962240000000002</v>
+        <v>0.99985360000000001</v>
       </c>
       <c r="H48" s="3">
-        <v>5.6104010000000003E-2</v>
+        <v>5.9067679999999997E-2</v>
       </c>
       <c r="I48" s="3">
-        <v>0.70227949999999995</v>
+        <v>1.182283</v>
       </c>
       <c r="J48" s="3">
-        <v>12.099489999999999</v>
+        <v>8.4884660000000007</v>
       </c>
       <c r="K48" s="3">
-        <v>8.8833590000000004</v>
+        <v>16.791450000000001</v>
       </c>
       <c r="L48" s="3">
-        <v>21.11167</v>
+        <v>38.69753</v>
       </c>
       <c r="M48" s="3">
-        <v>6.2456240000000003</v>
+        <v>11.78715</v>
       </c>
       <c r="N48" s="3">
-        <v>0.94400010000000001</v>
+        <v>0.91247730000000005</v>
       </c>
       <c r="O48" s="3">
-        <v>991.98249999999996</v>
+        <v>991.94619999999998</v>
       </c>
       <c r="P48" s="3">
-        <v>46.86151684</v>
+        <v>46.861515689999997</v>
       </c>
       <c r="Q48" s="3">
-        <v>-91.110673239999997</v>
+        <v>-91.110659830000003</v>
       </c>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45145.426145833335</v>
+        <v>45145.426354166666</v>
       </c>
       <c r="B49" s="3">
-        <v>10.958349999999999</v>
+        <v>15.78553</v>
       </c>
       <c r="C49" s="3">
-        <v>5.3136429999999999</v>
+        <v>7.031047</v>
       </c>
       <c r="D49" s="3">
-        <v>63.97034</v>
+        <v>62.475990000000003</v>
       </c>
       <c r="E49" s="3">
-        <v>85.508510000000001</v>
+        <v>91.268389999999997</v>
       </c>
       <c r="F49" s="3">
-        <v>3.9525749999999998E-2</v>
+        <v>4.203076E-2</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99964039999999998</v>
+        <v>0.9998534</v>
       </c>
       <c r="H49" s="3">
-        <v>5.6253020000000001E-2</v>
+        <v>5.9075299999999997E-2</v>
       </c>
       <c r="I49" s="3">
-        <v>0.70191749999999997</v>
+        <v>1.188455</v>
       </c>
       <c r="J49" s="3">
-        <v>11.906470000000001</v>
+        <v>8.4847739999999998</v>
       </c>
       <c r="K49" s="3">
-        <v>9.0139790000000009</v>
+        <v>16.798749999999998</v>
       </c>
       <c r="L49" s="3">
-        <v>21.41367</v>
+        <v>38.701320000000003</v>
       </c>
       <c r="M49" s="3">
-        <v>6.3374579999999998</v>
+        <v>11.791359999999999</v>
       </c>
       <c r="N49" s="3">
-        <v>0.94467120000000004</v>
+        <v>0.91197479999999997</v>
       </c>
       <c r="O49" s="3">
-        <v>991.98739999999998</v>
+        <v>991.94730000000004</v>
       </c>
       <c r="P49" s="3">
         <v>46.861515689999997</v>
@@ -2786,49 +3644,49 @@
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45145.426157407404</v>
+        <v>45145.426365740743</v>
       </c>
       <c r="B50" s="3">
-        <v>11.30846</v>
+        <v>15.959770000000001</v>
       </c>
       <c r="C50" s="3">
-        <v>5.292713</v>
+        <v>7.0460149999999997</v>
       </c>
       <c r="D50" s="3">
-        <v>62.686030000000002</v>
+        <v>62.499580000000002</v>
       </c>
       <c r="E50" s="3">
-        <v>86.62388</v>
+        <v>91.310829999999996</v>
       </c>
       <c r="F50" s="3">
-        <v>3.997556E-2</v>
+        <v>4.2050780000000003E-2</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99969110000000005</v>
+        <v>0.9998534</v>
       </c>
       <c r="H50" s="3">
-        <v>5.637168E-2</v>
+        <v>5.9082910000000002E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.80128779999999999</v>
+        <v>1.194628</v>
       </c>
       <c r="J50" s="3">
-        <v>11.132860000000001</v>
+        <v>8.4810800000000004</v>
       </c>
       <c r="K50" s="3">
-        <v>9.9742859999999993</v>
+        <v>16.806059999999999</v>
       </c>
       <c r="L50" s="3">
-        <v>23.621590000000001</v>
+        <v>38.705120000000001</v>
       </c>
       <c r="M50" s="3">
-        <v>7.0126210000000002</v>
+        <v>11.795579999999999</v>
       </c>
       <c r="N50" s="3">
-        <v>0.91393690000000005</v>
+        <v>0.91147230000000001</v>
       </c>
       <c r="O50" s="3">
-        <v>991.91759999999999</v>
+        <v>991.94849999999997</v>
       </c>
       <c r="P50" s="3">
         <v>46.861515689999997</v>
@@ -2837,978 +3695,6 @@
         <v>-91.110659830000003</v>
       </c>
       <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>45145.426168981481</v>
-      </c>
-      <c r="B51" s="3">
-        <v>11.323930000000001</v>
-      </c>
-      <c r="C51" s="3">
-        <v>5.3014289999999997</v>
-      </c>
-      <c r="D51" s="3">
-        <v>62.625590000000003</v>
-      </c>
-      <c r="E51" s="3">
-        <v>86.755889999999994</v>
-      </c>
-      <c r="F51" s="3">
-        <v>4.0033199999999998E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0.99969940000000002</v>
-      </c>
-      <c r="H51" s="3">
-        <v>5.6441280000000003E-2</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0.80689999999999995</v>
-      </c>
-      <c r="J51" s="3">
-        <v>11.028510000000001</v>
-      </c>
-      <c r="K51" s="3">
-        <v>10.06565</v>
-      </c>
-      <c r="L51" s="3">
-        <v>23.832350000000002</v>
-      </c>
-      <c r="M51" s="3">
-        <v>7.076854</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0.91286339999999999</v>
-      </c>
-      <c r="O51" s="3">
-        <v>991.91579999999999</v>
-      </c>
-      <c r="P51" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>45145.426180555558</v>
-      </c>
-      <c r="B52" s="3">
-        <v>11.33939</v>
-      </c>
-      <c r="C52" s="3">
-        <v>5.3101459999999996</v>
-      </c>
-      <c r="D52" s="3">
-        <v>62.565150000000003</v>
-      </c>
-      <c r="E52" s="3">
-        <v>86.887900000000002</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4.0090830000000001E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0.99970760000000003</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5.6510879999999999E-2</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0.81251200000000001</v>
-      </c>
-      <c r="J52" s="3">
-        <v>10.924149999999999</v>
-      </c>
-      <c r="K52" s="3">
-        <v>10.15701</v>
-      </c>
-      <c r="L52" s="3">
-        <v>24.043109999999999</v>
-      </c>
-      <c r="M52" s="3">
-        <v>7.1410859999999996</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0.91178979999999998</v>
-      </c>
-      <c r="O52" s="3">
-        <v>991.91390000000001</v>
-      </c>
-      <c r="P52" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>45145.426192129627</v>
-      </c>
-      <c r="B53" s="3">
-        <v>11.555059999999999</v>
-      </c>
-      <c r="C53" s="3">
-        <v>5.802162</v>
-      </c>
-      <c r="D53" s="3">
-        <v>62.285719999999998</v>
-      </c>
-      <c r="E53" s="3">
-        <v>87.529600000000002</v>
-      </c>
-      <c r="F53" s="3">
-        <v>4.036443E-2</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0.99977400000000005</v>
-      </c>
-      <c r="H53" s="3">
-        <v>5.7401109999999998E-2</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0.87819400000000003</v>
-      </c>
-      <c r="J53" s="3">
-        <v>9.9675080000000005</v>
-      </c>
-      <c r="K53" s="3">
-        <v>12.34018</v>
-      </c>
-      <c r="L53" s="3">
-        <v>29.083929999999999</v>
-      </c>
-      <c r="M53" s="3">
-        <v>8.6760090000000005</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0.90328790000000003</v>
-      </c>
-      <c r="O53" s="3">
-        <v>991.92939999999999</v>
-      </c>
-      <c r="P53" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>45145.426203703704</v>
-      </c>
-      <c r="B54" s="3">
-        <v>11.57343</v>
-      </c>
-      <c r="C54" s="3">
-        <v>5.8271249999999997</v>
-      </c>
-      <c r="D54" s="3">
-        <v>62.241419999999998</v>
-      </c>
-      <c r="E54" s="3">
-        <v>87.58587</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4.0387810000000003E-2</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0.99977870000000002</v>
-      </c>
-      <c r="H54" s="3">
-        <v>5.7450569999999999E-2</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0.88362370000000001</v>
-      </c>
-      <c r="J54" s="3">
-        <v>9.9002269999999992</v>
-      </c>
-      <c r="K54" s="3">
-        <v>12.47368</v>
-      </c>
-      <c r="L54" s="3">
-        <v>29.391970000000001</v>
-      </c>
-      <c r="M54" s="3">
-        <v>8.7698669999999996</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.90221090000000004</v>
-      </c>
-      <c r="O54" s="3">
-        <v>991.92880000000002</v>
-      </c>
-      <c r="P54" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>45145.426215277781</v>
-      </c>
-      <c r="B55" s="3">
-        <v>11.591810000000001</v>
-      </c>
-      <c r="C55" s="3">
-        <v>5.8520880000000002</v>
-      </c>
-      <c r="D55" s="3">
-        <v>62.197119999999998</v>
-      </c>
-      <c r="E55" s="3">
-        <v>87.642129999999995</v>
-      </c>
-      <c r="F55" s="3">
-        <v>4.0411179999999998E-2</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0.99978330000000004</v>
-      </c>
-      <c r="H55" s="3">
-        <v>5.7500019999999999E-2</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0.88905339999999999</v>
-      </c>
-      <c r="J55" s="3">
-        <v>9.8329439999999995</v>
-      </c>
-      <c r="K55" s="3">
-        <v>12.60717</v>
-      </c>
-      <c r="L55" s="3">
-        <v>29.700009999999999</v>
-      </c>
-      <c r="M55" s="3">
-        <v>8.8637239999999995</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0.90113390000000004</v>
-      </c>
-      <c r="O55" s="3">
-        <v>991.92819999999995</v>
-      </c>
-      <c r="P55" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>45145.426226851851</v>
-      </c>
-      <c r="B56" s="3">
-        <v>11.74053</v>
-      </c>
-      <c r="C56" s="3">
-        <v>6.2620950000000004</v>
-      </c>
-      <c r="D56" s="3">
-        <v>62.106229999999996</v>
-      </c>
-      <c r="E56" s="3">
-        <v>89.245009999999994</v>
-      </c>
-      <c r="F56" s="3">
-        <v>4.1117649999999999E-2</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0.9998127</v>
-      </c>
-      <c r="H56" s="3">
-        <v>5.8070709999999998E-2</v>
-      </c>
-      <c r="I56" s="3">
-        <v>1.037838</v>
-      </c>
-      <c r="J56" s="3">
-        <v>9.4724880000000002</v>
-      </c>
-      <c r="K56" s="3">
-        <v>13.696</v>
-      </c>
-      <c r="L56" s="3">
-        <v>32.20129</v>
-      </c>
-      <c r="M56" s="3">
-        <v>9.6292469999999994</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0.90128750000000002</v>
-      </c>
-      <c r="O56" s="3">
-        <v>991.96339999999998</v>
-      </c>
-      <c r="P56" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>45145.426238425927</v>
-      </c>
-      <c r="B57" s="3">
-        <v>11.752829999999999</v>
-      </c>
-      <c r="C57" s="3">
-        <v>6.2938409999999996</v>
-      </c>
-      <c r="D57" s="3">
-        <v>62.09552</v>
-      </c>
-      <c r="E57" s="3">
-        <v>89.342659999999995</v>
-      </c>
-      <c r="F57" s="3">
-        <v>4.1160509999999997E-2</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0.99981580000000003</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5.8119860000000002E-2</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1.0469520000000001</v>
-      </c>
-      <c r="J57" s="3">
-        <v>9.4326980000000002</v>
-      </c>
-      <c r="K57" s="3">
-        <v>13.79921</v>
-      </c>
-      <c r="L57" s="3">
-        <v>32.438949999999998</v>
-      </c>
-      <c r="M57" s="3">
-        <v>9.7018140000000006</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0.90111620000000003</v>
-      </c>
-      <c r="O57" s="3">
-        <v>991.96559999999999</v>
-      </c>
-      <c r="P57" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>45145.426249999997</v>
-      </c>
-      <c r="B58" s="3">
-        <v>11.76512</v>
-      </c>
-      <c r="C58" s="3">
-        <v>6.3255879999999998</v>
-      </c>
-      <c r="D58" s="3">
-        <v>62.084809999999997</v>
-      </c>
-      <c r="E58" s="3">
-        <v>89.44032</v>
-      </c>
-      <c r="F58" s="3">
-        <v>4.1203370000000003E-2</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0.99981869999999995</v>
-      </c>
-      <c r="H58" s="3">
-        <v>5.816901E-2</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1.0560670000000001</v>
-      </c>
-      <c r="J58" s="3">
-        <v>9.3929080000000003</v>
-      </c>
-      <c r="K58" s="3">
-        <v>13.902430000000001</v>
-      </c>
-      <c r="L58" s="3">
-        <v>32.676609999999997</v>
-      </c>
-      <c r="M58" s="3">
-        <v>9.7743819999999992</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0.90094490000000005</v>
-      </c>
-      <c r="O58" s="3">
-        <v>991.96770000000004</v>
-      </c>
-      <c r="P58" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>45145.426261574074</v>
-      </c>
-      <c r="B59" s="3">
-        <v>11.837910000000001</v>
-      </c>
-      <c r="C59" s="3">
-        <v>6.5760620000000003</v>
-      </c>
-      <c r="D59" s="3">
-        <v>61.990119999999997</v>
-      </c>
-      <c r="E59" s="3">
-        <v>89.835759999999993</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4.1372579999999999E-2</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0.99984799999999996</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5.8774800000000002E-2</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1.0163930000000001</v>
-      </c>
-      <c r="J59" s="3">
-        <v>8.8219899999999996</v>
-      </c>
-      <c r="K59" s="3">
-        <v>16.056290000000001</v>
-      </c>
-      <c r="L59" s="3">
-        <v>37.575710000000001</v>
-      </c>
-      <c r="M59" s="3">
-        <v>11.288690000000001</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="O59" s="3">
-        <v>991.93430000000001</v>
-      </c>
-      <c r="P59" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>45145.42627314815</v>
-      </c>
-      <c r="B60" s="3">
-        <v>11.84491</v>
-      </c>
-      <c r="C60" s="3">
-        <v>6.5977569999999996</v>
-      </c>
-      <c r="D60" s="3">
-        <v>61.98301</v>
-      </c>
-      <c r="E60" s="3">
-        <v>89.890410000000003</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4.13964E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0.99985020000000002</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5.88184E-2</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1.0174989999999999</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8.7845259999999996</v>
-      </c>
-      <c r="K60" s="3">
-        <v>16.191469999999999</v>
-      </c>
-      <c r="L60" s="3">
-        <v>37.88373</v>
-      </c>
-      <c r="M60" s="3">
-        <v>11.38374</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="O60" s="3">
-        <v>991.93320000000006</v>
-      </c>
-      <c r="P60" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>45145.42628472222</v>
-      </c>
-      <c r="B61" s="3">
-        <v>11.85191</v>
-      </c>
-      <c r="C61" s="3">
-        <v>6.6194519999999999</v>
-      </c>
-      <c r="D61" s="3">
-        <v>61.975879999999997</v>
-      </c>
-      <c r="E61" s="3">
-        <v>89.945070000000001</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.1420209999999999E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0.99985239999999997</v>
-      </c>
-      <c r="H61" s="3">
-        <v>5.8861990000000003E-2</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1.0186040000000001</v>
-      </c>
-      <c r="J61" s="3">
-        <v>8.7470630000000007</v>
-      </c>
-      <c r="K61" s="3">
-        <v>16.32666</v>
-      </c>
-      <c r="L61" s="3">
-        <v>38.191749999999999</v>
-      </c>
-      <c r="M61" s="3">
-        <v>11.47879</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="O61" s="3">
-        <v>991.93230000000005</v>
-      </c>
-      <c r="P61" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>45145.426296296297</v>
-      </c>
-      <c r="B62" s="3">
-        <v>12.22641</v>
-      </c>
-      <c r="C62" s="3">
-        <v>6.7378830000000001</v>
-      </c>
-      <c r="D62" s="3">
-        <v>61.988770000000002</v>
-      </c>
-      <c r="E62" s="3">
-        <v>90.525859999999994</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.1676320000000003E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0.99985409999999997</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5.8892529999999998E-2</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1.0783389999999999</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8.5295529999999999</v>
-      </c>
-      <c r="K62" s="3">
-        <v>16.61534</v>
-      </c>
-      <c r="L62" s="3">
-        <v>38.433869999999999</v>
-      </c>
-      <c r="M62" s="3">
-        <v>11.681749999999999</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0.93130650000000004</v>
-      </c>
-      <c r="O62" s="3">
-        <v>991.92280000000005</v>
-      </c>
-      <c r="P62" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>45145.426307870373</v>
-      </c>
-      <c r="B63" s="3">
-        <v>12.2475</v>
-      </c>
-      <c r="C63" s="3">
-        <v>6.7492900000000002</v>
-      </c>
-      <c r="D63" s="3">
-        <v>61.987450000000003</v>
-      </c>
-      <c r="E63" s="3">
-        <v>90.5642</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.169312E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0.99985489999999999</v>
-      </c>
-      <c r="H63" s="3">
-        <v>5.8906800000000002E-2</v>
-      </c>
-      <c r="I63" s="3">
-        <v>1.080606</v>
-      </c>
-      <c r="J63" s="3">
-        <v>8.5061859999999996</v>
-      </c>
-      <c r="K63" s="3">
-        <v>16.675550000000001</v>
-      </c>
-      <c r="L63" s="3">
-        <v>38.549160000000001</v>
-      </c>
-      <c r="M63" s="3">
-        <v>11.724080000000001</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0.93288979999999999</v>
-      </c>
-      <c r="O63" s="3">
-        <v>991.92160000000001</v>
-      </c>
-      <c r="P63" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>45145.426319444443</v>
-      </c>
-      <c r="B64" s="3">
-        <v>12.26858</v>
-      </c>
-      <c r="C64" s="3">
-        <v>6.7606970000000004</v>
-      </c>
-      <c r="D64" s="3">
-        <v>61.98612</v>
-      </c>
-      <c r="E64" s="3">
-        <v>90.602549999999994</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.1709919999999998E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.99985559999999996</v>
-      </c>
-      <c r="H64" s="3">
-        <v>5.8921080000000001E-2</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1.0828720000000001</v>
-      </c>
-      <c r="J64" s="3">
-        <v>8.482818</v>
-      </c>
-      <c r="K64" s="3">
-        <v>16.735759999999999</v>
-      </c>
-      <c r="L64" s="3">
-        <v>38.664459999999998</v>
-      </c>
-      <c r="M64" s="3">
-        <v>11.76641</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0.93447309999999995</v>
-      </c>
-      <c r="O64" s="3">
-        <v>991.9203</v>
-      </c>
-      <c r="P64" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>45145.42633101852</v>
-      </c>
-      <c r="B65" s="3">
-        <v>12.289669999999999</v>
-      </c>
-      <c r="C65" s="3">
-        <v>6.7721039999999997</v>
-      </c>
-      <c r="D65" s="3">
-        <v>61.9848</v>
-      </c>
-      <c r="E65" s="3">
-        <v>90.640889999999999</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.1726720000000002E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0.99985630000000003</v>
-      </c>
-      <c r="H65" s="3">
-        <v>5.8935349999999997E-2</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1.0851390000000001</v>
-      </c>
-      <c r="J65" s="3">
-        <v>8.4594500000000004</v>
-      </c>
-      <c r="K65" s="3">
-        <v>16.795970000000001</v>
-      </c>
-      <c r="L65" s="3">
-        <v>38.779769999999999</v>
-      </c>
-      <c r="M65" s="3">
-        <v>11.80874</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0.93605629999999995</v>
-      </c>
-      <c r="O65" s="3">
-        <v>991.91920000000005</v>
-      </c>
-      <c r="P65" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>45145.426342592589</v>
-      </c>
-      <c r="B66" s="3">
-        <v>15.61129</v>
-      </c>
-      <c r="C66" s="3">
-        <v>7.0160790000000004</v>
-      </c>
-      <c r="D66" s="3">
-        <v>62.45241</v>
-      </c>
-      <c r="E66" s="3">
-        <v>91.225939999999994</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.2010739999999998E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0.99985360000000001</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5.9067679999999997E-2</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1.182283</v>
-      </c>
-      <c r="J66" s="3">
-        <v>8.4884660000000007</v>
-      </c>
-      <c r="K66" s="3">
-        <v>16.791450000000001</v>
-      </c>
-      <c r="L66" s="3">
-        <v>38.69753</v>
-      </c>
-      <c r="M66" s="3">
-        <v>11.78715</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0.91247730000000005</v>
-      </c>
-      <c r="O66" s="3">
-        <v>991.94619999999998</v>
-      </c>
-      <c r="P66" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45145.426354166666</v>
-      </c>
-      <c r="B67" s="3">
-        <v>15.78553</v>
-      </c>
-      <c r="C67" s="3">
-        <v>7.031047</v>
-      </c>
-      <c r="D67" s="3">
-        <v>62.475990000000003</v>
-      </c>
-      <c r="E67" s="3">
-        <v>91.268389999999997</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.203076E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.9998534</v>
-      </c>
-      <c r="H67" s="3">
-        <v>5.9075299999999997E-2</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1.188455</v>
-      </c>
-      <c r="J67" s="3">
-        <v>8.4847739999999998</v>
-      </c>
-      <c r="K67" s="3">
-        <v>16.798749999999998</v>
-      </c>
-      <c r="L67" s="3">
-        <v>38.701320000000003</v>
-      </c>
-      <c r="M67" s="3">
-        <v>11.791359999999999</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.91197479999999997</v>
-      </c>
-      <c r="O67" s="3">
-        <v>991.94730000000004</v>
-      </c>
-      <c r="P67" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45145.426365740743</v>
-      </c>
-      <c r="B68" s="3">
-        <v>15.959770000000001</v>
-      </c>
-      <c r="C68" s="3">
-        <v>7.0460149999999997</v>
-      </c>
-      <c r="D68" s="3">
-        <v>62.499580000000002</v>
-      </c>
-      <c r="E68" s="3">
-        <v>91.310829999999996</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.2050780000000003E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.9998534</v>
-      </c>
-      <c r="H68" s="3">
-        <v>5.9082910000000002E-2</v>
-      </c>
-      <c r="I68" s="3">
-        <v>1.194628</v>
-      </c>
-      <c r="J68" s="3">
-        <v>8.4810800000000004</v>
-      </c>
-      <c r="K68" s="3">
-        <v>16.806059999999999</v>
-      </c>
-      <c r="L68" s="3">
-        <v>38.705120000000001</v>
-      </c>
-      <c r="M68" s="3">
-        <v>11.795579999999999</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.91147230000000001</v>
-      </c>
-      <c r="O68" s="3">
-        <v>991.94849999999997</v>
-      </c>
-      <c r="P68" s="3">
-        <v>46.861515689999997</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>-91.110659830000003</v>
-      </c>
-      <c r="R68" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
